--- a/medicine/Enfance/Yvon_Mauffret/Yvon_Mauffret.xlsx
+++ b/medicine/Enfance/Yvon_Mauffret/Yvon_Mauffret.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Yvon Mauffret est un écrivain français pour la jeunesse, scénariste et journaliste né le 24 décembre 1927 à Lorient dans le Morbihan et mort le 15 mars 2011.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Marin comme son père qui était capitaine dans la marine marchande, Yvon Mauffret parcourt le monde puis s'installe à Paris pour se lancer dans l'écriture[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marin comme son père qui était capitaine dans la marine marchande, Yvon Mauffret parcourt le monde puis s'installe à Paris pour se lancer dans l'écriture.
 Il publie son premier texte en 1957. Il résidait en presqu'île de Rhuys, et plus précisément à Saint-Gildas de Rhuys dont la médiathèque porte aujourd'hui son nom.
 </t>
         </is>
@@ -543,10 +557,12 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
-République du bon dieu[2]
+République du bon dieu
 Les Oignons de la fortune, réédition – Précédemment publié sous le titre « Une audacieuse expédition », Rageot, Coll. Cascade, 2004
 La Route de Valparaiso, Liv'Poche, Liv'Éditions, 2003
 Les Mariés du cap Horn, Liv'Poche, Liv'Éditions, 2003
@@ -666,11 +682,13 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Prix Bernard Versele 1997 : Label Chouette pour La Clé[3]
-Prix du Salon du livre maritime 1998 : Prix Jeunesse Gabier pour Goulven[4]
-Prix Chronos 1999 : pour Goulven[5]</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Prix Bernard Versele 1997 : Label Chouette pour La Clé
+Prix du Salon du livre maritime 1998 : Prix Jeunesse Gabier pour Goulven
+Prix Chronos 1999 : pour Goulven</t>
         </is>
       </c>
     </row>
